--- a/IDOU_05_事件触发_03_大小类事件映射表_v2.0.xlsx
+++ b/IDOU_05_事件触发_03_大小类事件映射表_v2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田兆卓\Desktop\德勤实习\20230713财务舞弊手段特征工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597B1AE-97DC-4B88-AB0A-54BD54BD5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E2F7D-02B8-4B5B-A9CB-5F70FDFFD2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,8 +1071,8 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
